--- a/ope.ed.gov/2013/criminal-offenses-on-campus-virginia-colleges-and-universities-crime-2013.xlsx
+++ b/ope.ed.gov/2013/criminal-offenses-on-campus-virginia-colleges-and-universities-crime-2013.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - On campus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1831,52 +1828,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2013.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>824.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1887,13 +1926,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>824.0</v>
@@ -1934,13 +1973,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>824.0</v>
@@ -1978,19 +2017,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>824.0</v>
+        <v>1857.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -2028,13 +2067,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
         <v>1857.0</v>
@@ -2075,13 +2114,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
         <v>1857.0</v>
@@ -2122,13 +2161,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>1857.0</v>
@@ -2169,13 +2208,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>1857.0</v>
@@ -2216,13 +2255,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>1857.0</v>
@@ -2263,13 +2302,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>1857.0</v>
@@ -2310,13 +2349,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>1857.0</v>
@@ -2357,13 +2396,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>1857.0</v>
@@ -2404,13 +2443,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
         <v>1857.0</v>
@@ -2448,19 +2487,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232797.0</v>
+        <v>449922.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>1857.0</v>
+        <v>220.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -2495,19 +2534,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B16">
-        <v>449922.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>220.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -2542,19 +2581,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B17">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>219.0</v>
+        <v>925.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2589,19 +2628,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B18">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>925.0</v>
+        <v>906.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2619,10 +2658,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L18">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M18">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N18">
         <v>0.0</v>
@@ -2636,19 +2675,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>906.0</v>
+        <v>1221.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2666,10 +2705,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L19">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N19">
         <v>0.0</v>
@@ -2686,13 +2725,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
         <v>1221.0</v>
@@ -2733,13 +2772,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
         <v>1221.0</v>
@@ -2780,13 +2819,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
         <v>1221.0</v>
@@ -2824,19 +2863,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B23">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>1221.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2871,19 +2910,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B24">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>23.0</v>
+        <v>235.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2918,19 +2957,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B25">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>235.0</v>
+        <v>77.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2965,16 +3004,16 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B26">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
         <v>77.0</v>
@@ -3012,19 +3051,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B27">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>77.0</v>
+        <v>108.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -3059,19 +3098,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231280.0</v>
+        <v>458113.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>108.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -3092,10 +3131,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O28">
         <v>0.0</v>
@@ -3106,19 +3145,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B29">
-        <v>458113.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>54.0</v>
+        <v>4437.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -3139,10 +3178,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O29">
         <v>0.0</v>
@@ -3153,19 +3192,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>4437.0</v>
+        <v>842.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -3186,7 +3225,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M30">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
@@ -3200,19 +3239,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>842.0</v>
+        <v>408.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -3233,7 +3272,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -3247,19 +3286,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>408.0</v>
+        <v>28.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -3294,19 +3333,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>28.0</v>
+        <v>1848.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -3315,7 +3354,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I33">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J33">
         <v>0.0</v>
@@ -3327,7 +3366,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M33">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N33">
         <v>0.0</v>
@@ -3341,19 +3380,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231581.0</v>
+        <v>459107.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>1848.0</v>
+        <v>641.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -3362,7 +3401,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I34">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J34">
         <v>0.0</v>
@@ -3374,7 +3413,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M34">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N34">
         <v>0.0</v>
@@ -3388,19 +3427,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B35">
-        <v>459107.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>641.0</v>
+        <v>906.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3435,19 +3474,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>906.0</v>
+        <v>728.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -3482,19 +3521,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>728.0</v>
+        <v>280.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -3529,19 +3568,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B38">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>280.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3576,19 +3615,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B39">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3623,19 +3662,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>50.0</v>
+        <v>4730.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3673,13 +3712,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
         <v>4730.0</v>
@@ -3720,13 +3759,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>4730.0</v>
@@ -3767,13 +3806,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
         <v>4730.0</v>
@@ -3814,13 +3853,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
         <v>4730.0</v>
@@ -3858,19 +3897,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>4730.0</v>
+        <v>166.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3905,19 +3944,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B46">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>166.0</v>
+        <v>138.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3952,19 +3991,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B47">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>138.0</v>
+        <v>260.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3999,19 +4038,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>260.0</v>
+        <v>229.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -4046,19 +4085,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B49">
-        <v>427982.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>229.0</v>
+        <v>477.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -4093,19 +4132,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B50">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>477.0</v>
+        <v>169.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -4140,19 +4179,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B51">
-        <v>427894.0</v>
+        <v>460871.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>169.0</v>
+        <v>364.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -4187,19 +4226,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B52">
-        <v>460871.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>364.0</v>
+        <v>5232.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -4208,25 +4247,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I52">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="J52">
         <v>0.0</v>
       </c>
       <c s="1" r="K52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L52">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M52">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
       </c>
       <c s="1" r="O52">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
@@ -4234,19 +4273,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B53">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>5232.0</v>
+        <v>8376.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -4255,25 +4294,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I53">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J53">
         <v>0.0</v>
       </c>
       <c s="1" r="K53">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L53">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M53">
+        <v>22.0</v>
+      </c>
+      <c s="1" r="N53">
         <v>2.0</v>
       </c>
-      <c s="1" r="M53">
-        <v>3.0</v>
-      </c>
-      <c s="1" r="N53">
-        <v>0.0</v>
-      </c>
       <c s="1" r="O53">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -4284,13 +4323,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
         <v>8376.0</v>
@@ -4302,7 +4341,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I54">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J54">
         <v>0.0</v>
@@ -4314,10 +4353,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M54">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N54">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O54">
         <v>0.0</v>
@@ -4331,13 +4370,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
         <v>8376.0</v>
@@ -4378,13 +4417,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
         <v>8376.0</v>
@@ -4425,13 +4464,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
         <v>8376.0</v>
@@ -4469,19 +4508,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B58">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
-        <v>8376.0</v>
+        <v>310.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -4519,13 +4558,13 @@
         <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
         <v>310.0</v>
@@ -4563,19 +4602,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B60">
-        <v>455983.0</v>
+        <v>461449.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
-        <v>310.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -4610,19 +4649,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B61">
-        <v>461449.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
-        <v>110.0</v>
+        <v>33.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -4657,19 +4696,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B62">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
-        <v>33.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -4704,19 +4743,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B63">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>1312.0</v>
+        <v>4280.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -4737,13 +4776,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M63">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N63">
         <v>0.0</v>
       </c>
       <c s="1" r="O63">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -4751,19 +4790,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B64">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
-        <v>4280.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -4778,10 +4817,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K64">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L64">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M64">
         <v>1.0</v>
@@ -4790,7 +4829,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O64">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -4798,19 +4837,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B65">
-        <v>232724.0</v>
+        <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
-        <v>23.0</v>
+        <v>1328.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -4825,13 +4864,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K65">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L65">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M65">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N65">
         <v>0.0</v>
@@ -4848,13 +4887,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
         <v>1328.0</v>
@@ -4895,13 +4934,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
         <v>1328.0</v>
@@ -4939,19 +4978,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B68">
-        <v>482653.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
-        <v>1328.0</v>
+        <v>37.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -4986,19 +5025,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B69">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
-        <v>37.0</v>
+        <v>1640.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -5033,19 +5072,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
-        <v>1640.0</v>
+        <v>857.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -5080,19 +5119,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B71">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
-        <v>857.0</v>
+        <v>1017.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -5110,13 +5149,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L71">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M71">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N71">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O71">
         <v>0.0</v>
@@ -5127,19 +5166,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B72">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
-        <v>1017.0</v>
+        <v>10845.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -5157,13 +5196,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L72">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M72">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N72">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O72">
         <v>0.0</v>
@@ -5177,13 +5216,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
         <v>10845.0</v>
@@ -5224,13 +5263,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
         <v>10845.0</v>
@@ -5271,13 +5310,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
         <v>10845.0</v>
@@ -5318,13 +5357,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
         <v>10845.0</v>
@@ -5365,13 +5404,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
         <v>10845.0</v>
@@ -5412,13 +5451,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
         <v>10845.0</v>
@@ -5459,13 +5498,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
         <v>10845.0</v>
@@ -5506,13 +5545,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
         <v>10845.0</v>
@@ -5553,13 +5592,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
         <v>10845.0</v>
@@ -5600,13 +5639,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
         <v>10845.0</v>
@@ -5647,13 +5686,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
         <v>10845.0</v>
@@ -5694,13 +5733,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
         <v>10845.0</v>
@@ -5741,13 +5780,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
         <v>10845.0</v>
@@ -5785,19 +5824,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B86">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F86">
-        <v>10845.0</v>
+        <v>1278.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -5835,13 +5874,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F87">
         <v>1278.0</v>
@@ -5879,29 +5918,29 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B88">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E88">
+        <v>188</v>
+      </c>
+      <c s="1" r="F88">
+        <v>959.0</v>
+      </c>
+      <c s="1" r="G88">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H88">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I88">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E88">
-        <v>187</v>
-      </c>
-      <c s="1" r="F88">
-        <v>1278.0</v>
-      </c>
-      <c s="1" r="G88">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H88">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I88">
-        <v>0.0</v>
-      </c>
       <c s="1" r="J88">
         <v>0.0</v>
       </c>
@@ -5909,10 +5948,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L88">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M88">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="N88">
         <v>0.0</v>
@@ -5926,19 +5965,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B89">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
-        <v>959.0</v>
+        <v>145.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -5947,7 +5986,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I89">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J89">
         <v>0.0</v>
@@ -5956,10 +5995,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L89">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M89">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N89">
         <v>0.0</v>
@@ -5973,19 +6012,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B90">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>145.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -6020,19 +6059,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B91">
-        <v>450599.0</v>
+        <v>476179.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
-        <v>140.0</v>
+        <v>181.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -6067,19 +6106,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B92">
-        <v>476179.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F92">
-        <v>181.0</v>
+        <v>840.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -6114,19 +6153,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B93">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F93">
-        <v>840.0</v>
+        <v>237.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -6161,19 +6200,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B94">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
-        <v>237.0</v>
+        <v>525.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -6208,19 +6247,16 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232502.0</v>
+        <v>481924.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
-      </c>
-      <c s="1" r="F95">
-        <v>525.0</v>
+        <v>202</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -6255,16 +6291,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B96">
-        <v>481924.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c s="1" r="F96">
+        <v>1512.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -6273,25 +6312,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I96">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J96">
         <v>0.0</v>
       </c>
       <c s="1" r="K96">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L96">
         <v>0.0</v>
       </c>
       <c s="1" r="M96">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N96">
         <v>0.0</v>
       </c>
       <c s="1" r="O96">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97">
@@ -6299,19 +6338,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B97">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
-        <v>1512.0</v>
+        <v>291.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -6320,25 +6359,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I97">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J97">
         <v>0.0</v>
       </c>
       <c s="1" r="K97">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L97">
         <v>0.0</v>
       </c>
       <c s="1" r="M97">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N97">
         <v>0.0</v>
       </c>
       <c s="1" r="O97">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -6346,19 +6385,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B98">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
-        <v>291.0</v>
+        <v>457.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -6393,19 +6432,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B99">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
-        <v>457.0</v>
+        <v>33917.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -6414,25 +6453,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I99">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="J99">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K99">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L99">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M99">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="N99">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O99">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
@@ -6440,19 +6479,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B100">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
-        <v>33917.0</v>
+        <v>7379.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -6461,25 +6500,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I100">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J100">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K100">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L100">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M100">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N100">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O100">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -6490,13 +6529,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
         <v>7379.0</v>
@@ -6537,13 +6576,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
         <v>7379.0</v>
@@ -6584,13 +6623,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
         <v>7379.0</v>
@@ -6631,13 +6670,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
         <v>7379.0</v>
@@ -6675,19 +6714,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B105">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
-        <v>7379.0</v>
+        <v>265.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -6722,19 +6761,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B106">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
-        <v>265.0</v>
+        <v>160.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -6769,19 +6808,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B107">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
-        <v>160.0</v>
+        <v>1070.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -6802,7 +6841,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M107">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N107">
         <v>0.0</v>
@@ -6816,19 +6855,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B108">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
-        <v>1070.0</v>
+        <v>4622.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -6849,7 +6888,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M108">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N108">
         <v>0.0</v>
@@ -6866,13 +6905,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F109">
         <v>4622.0</v>
@@ -6896,7 +6935,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M109">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N109">
         <v>0.0</v>
@@ -6910,19 +6949,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
-        <v>4622.0</v>
+        <v>91.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -6957,19 +6996,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B111">
-        <v>431266.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
-        <v>91.0</v>
+        <v>750.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -7004,19 +7043,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B112">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
-        <v>750.0</v>
+        <v>80.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -7051,19 +7090,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B113">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
-        <v>80.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -7098,19 +7137,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B114">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
-        <v>1.0</v>
+        <v>573.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -7145,19 +7184,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B115">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
-        <v>573.0</v>
+        <v>720.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -7192,19 +7231,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B116">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
-        <v>720.0</v>
+        <v>573.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -7239,19 +7278,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B117">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
-        <v>573.0</v>
+        <v>250.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -7286,19 +7325,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B118">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
-        <v>250.0</v>
+        <v>678.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -7333,19 +7372,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B119">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
-        <v>678.0</v>
+        <v>12454.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -7354,7 +7393,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I119">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J119">
         <v>0.0</v>
@@ -7366,7 +7405,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M119">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N119">
         <v>0.0</v>
@@ -7383,13 +7422,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
         <v>12454.0</v>
@@ -7401,7 +7440,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I120">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J120">
         <v>0.0</v>
@@ -7413,7 +7452,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M120">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N120">
         <v>0.0</v>
@@ -7430,13 +7469,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
         <v>12454.0</v>
@@ -7448,7 +7487,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I121">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J121">
         <v>0.0</v>
@@ -7474,19 +7513,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B122">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
-        <v>12454.0</v>
+        <v>20181.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -7495,7 +7534,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I122">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J122">
         <v>0.0</v>
@@ -7504,16 +7543,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L122">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M122">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="N122">
         <v>0.0</v>
       </c>
       <c s="1" r="O122">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
@@ -7524,13 +7563,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
         <v>20181.0</v>
@@ -7542,7 +7581,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I123">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J123">
         <v>0.0</v>
@@ -7551,16 +7590,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L123">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M123">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N123">
         <v>0.0</v>
       </c>
       <c s="1" r="O123">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -7571,13 +7610,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
         <v>20181.0</v>
@@ -7618,13 +7657,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
         <v>20181.0</v>
@@ -7662,19 +7701,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B126">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F126">
-        <v>20181.0</v>
+        <v>1039.0</v>
       </c>
       <c s="1" r="G126">
         <v>0.0</v>
@@ -7709,19 +7748,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B127">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F127">
-        <v>1039.0</v>
+        <v>10103.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -7759,13 +7798,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
         <v>10103.0</v>
@@ -7786,7 +7825,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L128">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M128">
         <v>0.0</v>
@@ -7806,13 +7845,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F129">
         <v>10103.0</v>
@@ -7833,7 +7872,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L129">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M129">
         <v>0.0</v>
@@ -7853,13 +7892,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F130">
         <v>10103.0</v>
@@ -7897,19 +7936,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B131">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
-        <v>10103.0</v>
+        <v>77338.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -7918,7 +7957,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I131">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J131">
         <v>0.0</v>
@@ -7930,13 +7969,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M131">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N131">
         <v>0.0</v>
       </c>
       <c s="1" r="O131">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="132">
@@ -7944,19 +7983,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
-        <v>77338.0</v>
+        <v>4960.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -7965,7 +8004,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I132">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J132">
         <v>0.0</v>
@@ -7974,16 +8013,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M132">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="N132">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O132">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
@@ -7994,13 +8033,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
         <v>4960.0</v>
@@ -8021,16 +8060,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M133">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N133">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
@@ -8041,13 +8080,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
         <v>4960.0</v>
@@ -8085,19 +8124,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B135">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
-        <v>4960.0</v>
+        <v>7238.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -8135,13 +8174,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
         <v>7238.0</v>
@@ -8182,13 +8221,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
         <v>7238.0</v>
@@ -8226,40 +8265,40 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B138">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E138">
+        <v>288</v>
+      </c>
+      <c s="1" r="F138">
+        <v>2713.0</v>
+      </c>
+      <c s="1" r="G138">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H138">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I138">
+        <v>6.0</v>
+      </c>
+      <c s="1" r="J138">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K138">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L138">
         <v>3.0</v>
       </c>
-      <c t="s" s="1" r="E138">
-        <v>287</v>
-      </c>
-      <c s="1" r="F138">
-        <v>7238.0</v>
-      </c>
-      <c s="1" r="G138">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H138">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I138">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J138">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K138">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L138">
-        <v>0.0</v>
-      </c>
       <c s="1" r="M138">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N138">
         <v>0.0</v>
@@ -8273,19 +8312,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B139">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
-        <v>2713.0</v>
+        <v>144.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -8294,7 +8333,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I139">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J139">
         <v>0.0</v>
@@ -8303,10 +8342,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L139">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M139">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N139">
         <v>0.0</v>
@@ -8320,19 +8359,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>144.0</v>
+        <v>1711.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -8367,19 +8406,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
-        <v>1711.0</v>
+        <v>3486.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -8388,7 +8427,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I141">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J141">
         <v>0.0</v>
@@ -8400,7 +8439,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M141">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N141">
         <v>0.0</v>
@@ -8414,19 +8453,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F142">
-        <v>3486.0</v>
+        <v>1373.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -8435,7 +8474,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I142">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J142">
         <v>0.0</v>
@@ -8447,7 +8486,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M142">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N142">
         <v>0.0</v>
@@ -8464,13 +8503,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F143">
         <v>1373.0</v>
@@ -8511,13 +8550,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
         <v>1373.0</v>
@@ -8555,19 +8594,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B145">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F145">
-        <v>1373.0</v>
+        <v>472.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -8602,19 +8641,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233091.0</v>
+        <v>475194.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F146">
-        <v>472.0</v>
+        <v>297.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -8649,19 +8688,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B147">
-        <v>475194.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
-        <v>297.0</v>
+        <v>2924.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -8696,19 +8735,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B148">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
-        <v>2924.0</v>
+        <v>4808.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -8729,7 +8768,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M148">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N148">
         <v>0.0</v>
@@ -8746,13 +8785,13 @@
         <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F149">
         <v>4808.0</v>
@@ -8776,7 +8815,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M149">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N149">
         <v>0.0</v>
@@ -8790,46 +8829,46 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B150">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E150">
+        <v>312</v>
+      </c>
+      <c s="1" r="F150">
+        <v>6728.0</v>
+      </c>
+      <c s="1" r="G150">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H150">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I150">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E150">
-        <v>311</v>
-      </c>
-      <c s="1" r="F150">
-        <v>4808.0</v>
-      </c>
-      <c s="1" r="G150">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H150">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I150">
-        <v>0.0</v>
-      </c>
       <c s="1" r="J150">
         <v>0.0</v>
       </c>
       <c s="1" r="K150">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L150">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="M150">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="N150">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O150">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="151">
@@ -8837,19 +8876,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B151">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>6728.0</v>
+        <v>51803.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8858,25 +8897,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I151">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J151">
         <v>0.0</v>
       </c>
       <c s="1" r="K151">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L151">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M151">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N151">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O151">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -8887,13 +8926,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
         <v>51803.0</v>
@@ -8905,7 +8944,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I152">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J152">
         <v>0.0</v>
@@ -8914,7 +8953,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L152">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="M152">
         <v>0.0</v>
@@ -8934,13 +8973,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
         <v>51803.0</v>
@@ -8952,7 +8991,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I153">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J153">
         <v>0.0</v>
@@ -8961,7 +9000,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L153">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M153">
         <v>0.0</v>
@@ -8981,13 +9020,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F154">
         <v>51803.0</v>
@@ -8999,7 +9038,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I154">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J154">
         <v>0.0</v>
@@ -9028,13 +9067,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F155">
         <v>51803.0</v>
@@ -9055,10 +9094,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L155">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M155">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N155">
         <v>0.0</v>
@@ -9075,13 +9114,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
         <v>51803.0</v>
@@ -9093,7 +9132,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I156">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J156">
         <v>0.0</v>
@@ -9102,10 +9141,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L156">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M156">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N156">
         <v>0.0</v>
@@ -9122,13 +9161,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
         <v>51803.0</v>
@@ -9169,13 +9208,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
         <v>51803.0</v>
@@ -9216,13 +9255,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F159">
         <v>51803.0</v>
@@ -9263,13 +9302,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F160">
         <v>51803.0</v>
@@ -9310,13 +9349,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F161">
         <v>51803.0</v>
@@ -9357,13 +9396,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F162">
         <v>51803.0</v>
@@ -9404,13 +9443,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
         <v>51803.0</v>
@@ -9451,13 +9490,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F164">
         <v>51803.0</v>
@@ -9475,13 +9514,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K164">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L164">
         <v>0.0</v>
       </c>
       <c s="1" r="M164">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N164">
         <v>0.0</v>
@@ -9495,19 +9534,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B165">
-        <v>232946.0</v>
+        <v>461412.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F165">
-        <v>51803.0</v>
+        <v>96.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -9522,13 +9561,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K165">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L165">
         <v>0.0</v>
       </c>
       <c s="1" r="M165">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N165">
         <v>0.0</v>
@@ -9542,19 +9581,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B166">
-        <v>461412.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
-        <v>96.0</v>
+        <v>24828.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -9563,25 +9602,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I166">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J166">
         <v>0.0</v>
       </c>
       <c s="1" r="K166">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L166">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M166">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="N166">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="167">
@@ -9589,19 +9628,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B167">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
-        <v>24828.0</v>
+        <v>3163.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -9610,25 +9649,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I167">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J167">
         <v>0.0</v>
       </c>
       <c s="1" r="K167">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L167">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M167">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N167">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O167">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
@@ -9636,19 +9675,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
-        <v>3163.0</v>
+        <v>1392.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -9686,13 +9725,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
         <v>1392.0</v>
@@ -9730,19 +9769,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233037.0</v>
+        <v>480930.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F170">
-        <v>1392.0</v>
+        <v>121.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -9777,19 +9816,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B171">
-        <v>480930.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F171">
-        <v>121.0</v>
+        <v>181.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -9824,19 +9863,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B172">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
-        <v>181.0</v>
+        <v>5630.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -9874,13 +9913,13 @@
         <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F173">
         <v>5630.0</v>
@@ -9918,46 +9957,46 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E174">
+        <v>360</v>
+      </c>
+      <c s="1" r="F174">
+        <v>9928.0</v>
+      </c>
+      <c s="1" r="G174">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H174">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I174">
+        <v>7.0</v>
+      </c>
+      <c s="1" r="J174">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K174">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L174">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M174">
+        <v>5.0</v>
+      </c>
+      <c s="1" r="N174">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O174">
         <v>2.0</v>
-      </c>
-      <c t="s" s="1" r="E174">
-        <v>359</v>
-      </c>
-      <c s="1" r="F174">
-        <v>5630.0</v>
-      </c>
-      <c s="1" r="G174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N174">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O174">
-        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -9968,13 +10007,13 @@
         <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
         <v>9928.0</v>
@@ -9986,7 +10025,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I175">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J175">
         <v>0.0</v>
@@ -9998,13 +10037,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M175">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N175">
         <v>0.0</v>
       </c>
       <c s="1" r="O175">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -10015,13 +10054,13 @@
         <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
         <v>9928.0</v>
@@ -10045,7 +10084,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M176">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N176">
         <v>0.0</v>
@@ -10062,13 +10101,13 @@
         <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F177">
         <v>9928.0</v>
@@ -10106,19 +10145,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
-        <v>9928.0</v>
+        <v>682.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -10127,7 +10166,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I178">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J178">
         <v>0.0</v>
@@ -10139,7 +10178,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M178">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N178">
         <v>0.0</v>
@@ -10153,19 +10192,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B179">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
-        <v>682.0</v>
+        <v>1315.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -10174,7 +10213,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I179">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J179">
         <v>0.0</v>
@@ -10183,7 +10222,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L179">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M179">
         <v>2.0</v>
@@ -10200,19 +10239,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B180">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
-        <v>1315.0</v>
+        <v>3555.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -10221,7 +10260,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I180">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J180">
         <v>0.0</v>
@@ -10230,10 +10269,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L180">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M180">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N180">
         <v>0.0</v>
@@ -10250,13 +10289,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
         <v>3555.0</v>
@@ -10297,13 +10336,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
         <v>3555.0</v>
@@ -10341,19 +10380,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233310.0</v>
+        <v>467605.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
-        <v>3555.0</v>
+        <v>90.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -10388,19 +10427,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B184">
-        <v>467605.0</v>
+        <v>476133.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
-        <v>90.0</v>
+        <v>138.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -10435,19 +10474,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B185">
-        <v>476133.0</v>
+        <v>467650.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
-        <v>138.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G185">
         <v>0.0</v>
@@ -10482,19 +10521,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B186">
-        <v>467650.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
-        <v>58.0</v>
+        <v>5693.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -10529,19 +10568,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B187">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
-        <v>5693.0</v>
+        <v>1428.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -10562,7 +10601,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M187">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N187">
         <v>0.0</v>
@@ -10576,19 +10615,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B188">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F188">
-        <v>1428.0</v>
+        <v>172.0</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -10609,7 +10648,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M188">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N188">
         <v>0.0</v>
@@ -10623,19 +10662,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B189">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F189">
-        <v>172.0</v>
+        <v>305.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -10670,19 +10709,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
-        <v>305.0</v>
+        <v>2029.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -10691,7 +10730,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I190">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J190">
         <v>0.0</v>
@@ -10703,7 +10742,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M190">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N190">
         <v>0.0</v>
@@ -10717,19 +10756,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B191">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
-        <v>2029.0</v>
+        <v>228.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -10738,7 +10777,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I191">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J191">
         <v>0.0</v>
@@ -10750,7 +10789,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M191">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N191">
         <v>0.0</v>
@@ -10764,19 +10803,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B192">
-        <v>441876.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
-        <v>228.0</v>
+        <v>231.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -10811,19 +10850,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B193">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
-        <v>231.0</v>
+        <v>360.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -10858,19 +10897,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B194">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
-        <v>360.0</v>
+        <v>4003.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -10879,7 +10918,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I194">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J194">
         <v>0.0</v>
@@ -10891,7 +10930,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M194">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N194">
         <v>0.0</v>
@@ -10905,19 +10944,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B195">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F195">
-        <v>4003.0</v>
+        <v>195.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -10926,7 +10965,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I195">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J195">
         <v>0.0</v>
@@ -10938,7 +10977,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M195">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N195">
         <v>0.0</v>
@@ -10952,19 +10991,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B196">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F196">
-        <v>195.0</v>
+        <v>699.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -10999,19 +11038,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B197">
-        <v>459259.0</v>
+        <v>459268.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F197">
-        <v>699.0</v>
+        <v>790.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -11046,19 +11085,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B198">
-        <v>459268.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F198">
-        <v>790.0</v>
+        <v>662.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -11067,7 +11106,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I198">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J198">
         <v>0.0</v>
@@ -11079,7 +11118,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M198">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N198">
         <v>0.0</v>
@@ -11093,19 +11132,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B199">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F199">
-        <v>662.0</v>
+        <v>63.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -11114,7 +11153,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I199">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J199">
         <v>0.0</v>
@@ -11126,7 +11165,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M199">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N199">
         <v>0.0</v>
@@ -11140,19 +11179,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B200">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D200">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F200">
-        <v>63.0</v>
+        <v>5784.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -11187,19 +11226,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B201">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D201">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F201">
-        <v>5784.0</v>
+        <v>2630.0</v>
       </c>
       <c s="1" r="G201">
         <v>0.0</v>
@@ -11234,19 +11273,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B202">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D202">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F202">
-        <v>2630.0</v>
+        <v>79.0</v>
       </c>
       <c s="1" r="G202">
         <v>0.0</v>
@@ -11281,19 +11320,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B203">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D203">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F203">
-        <v>79.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
@@ -11328,19 +11367,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B204">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D204">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F204">
-        <v>32.0</v>
+        <v>2825.0</v>
       </c>
       <c s="1" r="G204">
         <v>0.0</v>
@@ -11355,13 +11394,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K204">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L204">
         <v>0.0</v>
       </c>
       <c s="1" r="M204">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N204">
         <v>0.0</v>
@@ -11375,19 +11414,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B205">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D205">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F205">
-        <v>2825.0</v>
+        <v>7649.0</v>
       </c>
       <c s="1" r="G205">
         <v>0.0</v>
@@ -11402,13 +11441,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K205">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L205">
         <v>0.0</v>
       </c>
       <c s="1" r="M205">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N205">
         <v>0.0</v>
@@ -11425,13 +11464,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D206">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F206">
         <v>7649.0</v>
@@ -11472,13 +11511,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D207">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F207">
         <v>7649.0</v>
@@ -11519,13 +11558,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D208">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F208">
         <v>7649.0</v>
@@ -11566,13 +11605,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D209">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F209">
         <v>7649.0</v>
@@ -11613,13 +11652,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D210">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F210">
         <v>7649.0</v>
@@ -11660,13 +11699,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D211">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F211">
         <v>7649.0</v>
@@ -11707,13 +11746,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D212">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F212">
         <v>7649.0</v>
@@ -11754,13 +11793,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D213">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F213">
         <v>7649.0</v>
@@ -11801,13 +11840,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D214">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F214">
         <v>7649.0</v>
@@ -11831,7 +11870,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M214">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N214">
         <v>0.0</v>
@@ -11848,13 +11887,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D215">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F215">
         <v>7649.0</v>
@@ -11878,7 +11917,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M215">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N215">
         <v>0.0</v>
@@ -11892,19 +11931,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B216">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D216">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F216">
-        <v>7649.0</v>
+        <v>48.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -11925,7 +11964,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M216">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N216">
         <v>0.0</v>
@@ -11939,19 +11978,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B217">
-        <v>231721.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F217">
-        <v>48.0</v>
+        <v>710.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -11960,7 +11999,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I217">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J217">
         <v>0.0</v>
@@ -11972,10 +12011,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M217">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N217">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O217">
         <v>0.0</v>
@@ -11986,19 +12025,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B218">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F218">
-        <v>710.0</v>
+        <v>80.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -12007,7 +12046,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I218">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J218">
         <v>0.0</v>
@@ -12016,13 +12055,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L218">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M218">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N218">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O218">
         <v>0.0</v>
@@ -12033,19 +12072,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233286.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F219">
-        <v>80.0</v>
+        <v>663.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -12063,7 +12102,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L219">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M219">
         <v>0.0</v>
@@ -12080,19 +12119,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B220">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F220">
-        <v>663.0</v>
+        <v>1499.0</v>
       </c>
       <c s="1" r="G220">
         <v>0.0</v>
@@ -12107,16 +12146,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K220">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L220">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M220">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N220">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O220">
         <v>0.0</v>
@@ -12127,19 +12166,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B221">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F221">
-        <v>1499.0</v>
+        <v>244.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -12154,16 +12193,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K221">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L221">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M221">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N221">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O221">
         <v>0.0</v>
@@ -12174,19 +12213,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B222">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F222">
-        <v>244.0</v>
+        <v>2291.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -12195,7 +12234,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I222">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J222">
         <v>0.0</v>
@@ -12207,7 +12246,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M222">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N222">
         <v>0.0</v>
@@ -12221,19 +12260,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B223">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D223">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F223">
-        <v>2291.0</v>
+        <v>11033.0</v>
       </c>
       <c s="1" r="G223">
         <v>0.0</v>
@@ -12242,7 +12281,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I223">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J223">
         <v>0.0</v>
@@ -12254,10 +12293,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M223">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N223">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O223">
         <v>0.0</v>
@@ -12268,19 +12307,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B224">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D224">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F224">
-        <v>11033.0</v>
+        <v>28999.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -12301,10 +12340,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M224">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N224">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O224">
         <v>0.0</v>
@@ -12318,13 +12357,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D225">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F225">
         <v>28999.0</v>
@@ -12348,7 +12387,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M225">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N225">
         <v>0.0</v>
@@ -12365,13 +12404,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D226">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F226">
         <v>28999.0</v>
@@ -12412,13 +12451,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D227">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F227">
         <v>28999.0</v>
@@ -12442,7 +12481,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M227">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N227">
         <v>0.0</v>
@@ -12459,13 +12498,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D228">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F228">
         <v>28999.0</v>
@@ -12489,7 +12528,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M228">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N228">
         <v>0.0</v>
@@ -12506,13 +12545,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D229">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F229">
         <v>28999.0</v>
@@ -12536,7 +12575,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M229">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N229">
         <v>0.0</v>
@@ -12553,13 +12592,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D230">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F230">
         <v>28999.0</v>
@@ -12571,7 +12610,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I230">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J230">
         <v>0.0</v>
@@ -12586,7 +12625,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N230">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O230">
         <v>0.0</v>
@@ -12597,19 +12636,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B231">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D231">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F231">
-        <v>28999.0</v>
+        <v>310.0</v>
       </c>
       <c s="1" r="G231">
         <v>0.0</v>
@@ -12618,7 +12657,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I231">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J231">
         <v>0.0</v>
@@ -12633,7 +12672,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N231">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O231">
         <v>0.0</v>
@@ -12644,19 +12683,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B232">
-        <v>232919.0</v>
+        <v>476568.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D232">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F232">
-        <v>310.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G232">
         <v>0.0</v>
@@ -12691,19 +12730,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B233">
-        <v>476568.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D233">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F233">
-        <v>18.0</v>
+        <v>205.0</v>
       </c>
       <c s="1" r="G233">
         <v>0.0</v>
@@ -12724,7 +12763,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M233">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N233">
         <v>0.0</v>
@@ -12741,13 +12780,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D234">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F234">
         <v>205.0</v>
@@ -12771,7 +12810,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M234">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N234">
         <v>0.0</v>
@@ -12785,29 +12824,29 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B235">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D235">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E235">
+        <v>482</v>
+      </c>
+      <c s="1" r="F235">
+        <v>4831.0</v>
+      </c>
+      <c s="1" r="G235">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H235">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I235">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E235">
-        <v>481</v>
-      </c>
-      <c s="1" r="F235">
-        <v>205.0</v>
-      </c>
-      <c s="1" r="G235">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H235">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I235">
-        <v>0.0</v>
-      </c>
       <c s="1" r="J235">
         <v>0.0</v>
       </c>
@@ -12815,10 +12854,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L235">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M235">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N235">
         <v>0.0</v>
@@ -12835,13 +12874,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D236">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F236">
         <v>4831.0</v>
@@ -12853,7 +12892,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I236">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J236">
         <v>0.0</v>
@@ -12862,10 +12901,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L236">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M236">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N236">
         <v>0.0</v>
@@ -12882,13 +12921,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D237">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F237">
         <v>4831.0</v>
@@ -12926,19 +12965,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B238">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D238">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F238">
-        <v>4831.0</v>
+        <v>865.0</v>
       </c>
       <c s="1" r="G238">
         <v>0.0</v>
@@ -12973,19 +13012,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B239">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D239">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F239">
-        <v>865.0</v>
+        <v>706.0</v>
       </c>
       <c s="1" r="G239">
         <v>0.0</v>
@@ -13023,13 +13062,13 @@
         <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D240">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F240">
         <v>706.0</v>
@@ -13067,19 +13106,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B241">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D241">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F241">
-        <v>706.0</v>
+        <v>4140.0</v>
       </c>
       <c s="1" r="G241">
         <v>0.0</v>
@@ -13088,7 +13127,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I241">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="J241">
         <v>0.0</v>
@@ -13100,13 +13139,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M241">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N241">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O241">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="242">
@@ -13114,19 +13153,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B242">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D242">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F242">
-        <v>4140.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G242">
         <v>0.0</v>
@@ -13135,7 +13174,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I242">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J242">
         <v>0.0</v>
@@ -13147,13 +13186,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M242">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N242">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O242">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
@@ -13161,19 +13200,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B243">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D243">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F243">
-        <v>35.0</v>
+        <v>23464.0</v>
       </c>
       <c s="1" r="G243">
         <v>0.0</v>
@@ -13182,7 +13221,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I243">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="J243">
         <v>0.0</v>
@@ -13191,13 +13230,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L243">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M243">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="N243">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="O243">
         <v>0.0</v>
@@ -13211,13 +13250,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D244">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F244">
         <v>23464.0</v>
@@ -13229,7 +13268,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I244">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J244">
         <v>0.0</v>
@@ -13238,13 +13277,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L244">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M244">
-        <v>58.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N244">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O244">
         <v>0.0</v>
@@ -13258,13 +13297,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D245">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F245">
         <v>23464.0</v>
@@ -13305,13 +13344,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D246">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F246">
         <v>23464.0</v>
@@ -13352,13 +13391,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D247">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F247">
         <v>23464.0</v>
@@ -13399,13 +13438,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D248">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F248">
         <v>23464.0</v>
@@ -13443,19 +13482,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D249">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F249">
-        <v>23464.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -13490,19 +13529,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B250">
-        <v>377485.0</v>
+        <v>460923.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F250">
-        <v>58.0</v>
+        <v>506.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -13537,19 +13576,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B251">
-        <v>460923.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c s="1" r="F251">
-        <v>506.0</v>
+        <v>30974.0</v>
       </c>
       <c s="1" r="G251">
         <v>0.0</v>
@@ -13558,7 +13597,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I251">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J251">
         <v>0.0</v>
@@ -13567,13 +13606,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L251">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M251">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="N251">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O251">
         <v>0.0</v>
@@ -13587,13 +13626,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D252">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c s="1" r="F252">
         <v>30974.0</v>
@@ -13605,7 +13644,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I252">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J252">
         <v>0.0</v>
@@ -13614,16 +13653,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L252">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M252">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N252">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="O252">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="253">
@@ -13634,13 +13673,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C253">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c s="1" r="D253">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E253">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c s="1" r="F253">
         <v>30974.0</v>
@@ -13652,7 +13691,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I253">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J253">
         <v>0.0</v>
@@ -13661,16 +13700,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L253">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M253">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N253">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O253">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -13681,13 +13720,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C254">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c s="1" r="D254">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E254">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c s="1" r="F254">
         <v>30974.0</v>
@@ -13725,19 +13764,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B255">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C255">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c s="1" r="D255">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E255">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c s="1" r="F255">
-        <v>30974.0</v>
+        <v>2484.0</v>
       </c>
       <c s="1" r="G255">
         <v>0.0</v>
@@ -13755,7 +13794,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L255">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M255">
         <v>0.0</v>
@@ -13772,19 +13811,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B256">
-        <v>233903.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C256">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c s="1" r="D256">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E256">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c s="1" r="F256">
-        <v>2484.0</v>
+        <v>1675.0</v>
       </c>
       <c s="1" r="G256">
         <v>0.0</v>
@@ -13793,7 +13832,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I256">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J256">
         <v>0.0</v>
@@ -13802,10 +13841,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L256">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M256">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N256">
         <v>0.0</v>
@@ -13819,19 +13858,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B257">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C257">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c s="1" r="D257">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E257">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c s="1" r="F257">
-        <v>1675.0</v>
+        <v>31205.0</v>
       </c>
       <c s="1" r="G257">
         <v>0.0</v>
@@ -13840,7 +13879,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I257">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="J257">
         <v>0.0</v>
@@ -13849,16 +13888,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L257">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M257">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="N257">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O257">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="258">
@@ -13869,13 +13908,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C258">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c s="1" r="D258">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E258">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c s="1" r="F258">
         <v>31205.0</v>
@@ -13887,7 +13926,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I258">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J258">
         <v>0.0</v>
@@ -13899,13 +13938,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M258">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N258">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O258">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="259">
@@ -13916,13 +13955,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C259">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c s="1" r="D259">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E259">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c s="1" r="F259">
         <v>31205.0</v>
@@ -13963,13 +14002,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C260">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c s="1" r="D260">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E260">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c s="1" r="F260">
         <v>31205.0</v>
@@ -14010,13 +14049,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C261">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c s="1" r="D261">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E261">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c s="1" r="F261">
         <v>31205.0</v>
@@ -14057,13 +14096,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C262">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c s="1" r="D262">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E262">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c s="1" r="F262">
         <v>31205.0</v>
@@ -14104,13 +14143,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C263">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c s="1" r="D263">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E263">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c s="1" r="F263">
         <v>31205.0</v>
@@ -14151,13 +14190,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C264">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c s="1" r="D264">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E264">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c s="1" r="F264">
         <v>31205.0</v>
@@ -14198,13 +14237,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C265">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c s="1" r="D265">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E265">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c s="1" r="F265">
         <v>31205.0</v>
@@ -14245,13 +14284,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C266">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c s="1" r="D266">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E266">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c s="1" r="F266">
         <v>31205.0</v>
@@ -14292,13 +14331,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C267">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c s="1" r="D267">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E267">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c s="1" r="F267">
         <v>31205.0</v>
@@ -14339,13 +14378,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C268">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c s="1" r="D268">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E268">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c s="1" r="F268">
         <v>31205.0</v>
@@ -14386,13 +14425,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C269">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c s="1" r="D269">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E269">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c s="1" r="F269">
         <v>31205.0</v>
@@ -14430,19 +14469,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B270">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C270">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c s="1" r="D270">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E270">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c s="1" r="F270">
-        <v>31205.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="G270">
         <v>0.0</v>
@@ -14477,19 +14516,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B271">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C271">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c s="1" r="D271">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E271">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c s="1" r="F271">
-        <v>89.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G271">
         <v>0.0</v>
@@ -14524,43 +14563,43 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B272">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C272">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c s="1" r="D272">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E272">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c s="1" r="F272">
-        <v>56.0</v>
+        <v>5763.0</v>
       </c>
       <c s="1" r="G272">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H272">
         <v>0.0</v>
       </c>
       <c s="1" r="I272">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J272">
         <v>0.0</v>
       </c>
       <c s="1" r="K272">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L272">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M272">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N272">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O272">
         <v>0.0</v>
@@ -14571,43 +14610,40 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B273">
-        <v>234155.0</v>
+        <v>459082.0</v>
       </c>
       <c t="s" s="1" r="C273">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c s="1" r="D273">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E273">
-        <v>557</v>
-      </c>
-      <c s="1" r="F273">
-        <v>5763.0</v>
+        <v>558</v>
       </c>
       <c s="1" r="G273">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H273">
         <v>0.0</v>
       </c>
       <c s="1" r="I273">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J273">
         <v>0.0</v>
       </c>
       <c s="1" r="K273">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L273">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M273">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N273">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O273">
         <v>0.0</v>
@@ -14618,16 +14654,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B274">
-        <v>459082.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C274">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c s="1" r="D274">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E274">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c s="1" r="F274">
+        <v>1749.0</v>
       </c>
       <c s="1" r="G274">
         <v>0.0</v>
@@ -14642,13 +14681,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K274">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L274">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M274">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N274">
         <v>0.0</v>
@@ -14662,19 +14701,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B275">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C275">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c s="1" r="D275">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E275">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c s="1" r="F275">
-        <v>1749.0</v>
+        <v>582.0</v>
       </c>
       <c s="1" r="G275">
         <v>0.0</v>
@@ -14689,13 +14728,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K275">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L275">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="M275">
         <v>4.0</v>
-      </c>
-      <c s="1" r="M275">
-        <v>5.0</v>
       </c>
       <c s="1" r="N275">
         <v>0.0</v>
@@ -14709,19 +14748,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B276">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C276">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c s="1" r="D276">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E276">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c s="1" r="F276">
-        <v>582.0</v>
+        <v>1459.0</v>
       </c>
       <c s="1" r="G276">
         <v>0.0</v>
@@ -14730,7 +14769,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I276">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J276">
         <v>0.0</v>
@@ -14739,10 +14778,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L276">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M276">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N276">
         <v>0.0</v>
@@ -14756,19 +14795,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B277">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C277">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c s="1" r="D277">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E277">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c s="1" r="F277">
-        <v>1459.0</v>
+        <v>8654.0</v>
       </c>
       <c s="1" r="G277">
         <v>0.0</v>
@@ -14777,7 +14816,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I277">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J277">
         <v>0.0</v>
@@ -14803,19 +14842,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B278">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C278">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c s="1" r="D278">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E278">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c s="1" r="F278">
-        <v>8654.0</v>
+        <v>152.0</v>
       </c>
       <c s="1" r="G278">
         <v>0.0</v>
@@ -14850,19 +14889,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B279">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C279">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c s="1" r="D279">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E279">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c s="1" r="F279">
-        <v>152.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G279">
         <v>0.0</v>
@@ -14897,19 +14936,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B280">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C280">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c s="1" r="D280">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E280">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c s="1" r="F280">
-        <v>35.0</v>
+        <v>2277.0</v>
       </c>
       <c s="1" r="G280">
         <v>0.0</v>
@@ -14918,7 +14957,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I280">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J280">
         <v>0.0</v>
@@ -14930,10 +14969,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M280">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N280">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O280">
         <v>0.0</v>
@@ -14944,19 +14983,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B281">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C281">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c s="1" r="D281">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E281">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c s="1" r="F281">
-        <v>2277.0</v>
+        <v>81.0</v>
       </c>
       <c s="1" r="G281">
         <v>0.0</v>
@@ -14965,7 +15004,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I281">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J281">
         <v>0.0</v>
@@ -14977,10 +15016,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M281">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N281">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O281">
         <v>0.0</v>
@@ -14991,19 +15030,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B282">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C282">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c s="1" r="D282">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E282">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c s="1" r="F282">
-        <v>81.0</v>
+        <v>348.0</v>
       </c>
       <c s="1" r="G282">
         <v>0.0</v>
@@ -15038,19 +15077,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B283">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C283">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c s="1" r="D283">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E283">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c s="1" r="F283">
-        <v>348.0</v>
+        <v>371.0</v>
       </c>
       <c s="1" r="G283">
         <v>0.0</v>
@@ -15085,19 +15124,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B284">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C284">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c s="1" r="D284">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E284">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c s="1" r="F284">
-        <v>371.0</v>
+        <v>164.0</v>
       </c>
       <c s="1" r="G284">
         <v>0.0</v>
@@ -15106,7 +15145,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I284">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J284">
         <v>0.0</v>
@@ -15132,19 +15171,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B285">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C285">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c s="1" r="D285">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E285">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c s="1" r="F285">
-        <v>164.0</v>
+        <v>3468.0</v>
       </c>
       <c s="1" r="G285">
         <v>0.0</v>
@@ -15153,7 +15192,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I285">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J285">
         <v>0.0</v>
@@ -15171,53 +15210,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O285">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c s="1" r="A286">
-        <v>2013.0</v>
-      </c>
-      <c s="1" r="B286">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C286">
-        <v>582</v>
-      </c>
-      <c s="1" r="D286">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E286">
-        <v>583</v>
-      </c>
-      <c s="1" r="F286">
-        <v>3468.0</v>
-      </c>
-      <c s="1" r="G286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N286">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O286">
         <v>0.0</v>
       </c>
     </row>
